--- a/biology/Botanique/Cottea_pappophoroides/Cottea_pappophoroides.xlsx
+++ b/biology/Botanique/Cottea_pappophoroides/Cottea_pappophoroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cottea pappophoroides est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae[3], originaire d'Amérique du Nord et du Sud. C'est l'unique espèce du genre Cottea (genre monotypique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cottea pappophoroides est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique du Nord et du Sud. C'est l'unique espèce du genre Cottea (genre monotypique).
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cottea pappophoroides est une plante herbacée, vivace, cespiteuse, aux tiges dressées ou géniculées, pouvant atteindre de 30 à 70 cm de long.
 Les feuilles présentent une ligule formée d'une frange de poils de 0,5 mm de long, et un limbe allongé de 8 à 20 cm de long sur 3 à 6 mm de large.
 L'inflorescence est une panicule contractée, elliptique, de 10 à 20 cm de long sur  4 à 6 cm de large, regroupant des épillets solitaires.
 Les oblongs, de 7 à 10 mm de long, comprimés latéralement, comptent de 4 à 8 fleurons fertiles. Ils se désarticulent à maturité par abscission sous chaque fleuron fertile.
-Le fruit est un caryopse oblong, au péricarpe adhérent, de 1,5 mm de long[4].
+Le fruit est un caryopse oblong, au péricarpe adhérent, de 1,5 mm de long.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de l'espèce s'étend d'une part en Amérique du Nord, du sud-ouest des États-Unis jusqu'au centre du Mexique et d'autre part en Amérique du Sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de l'espèce s'étend d'une part en Amérique du Nord, du sud-ouest des États-Unis jusqu'au centre du Mexique et d'autre part en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -577,14 +593,16 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cottea pappophoroides a été décrite par le botaniste allemand, Karl Sigismund Kunth , et publiée en 1829 dans la revue Révision des graminées (1: 84.)[5],[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cottea pappophoroides a été décrite par le botaniste allemand, Karl Sigismund Kunth , et publiée en 1829 dans la revue Révision des graminées (1: 84.).
 Étymologie
-Le nom générique « Cottea » est un hommage à l'agronome allemand, Heinrich Cotta[3].
+Le nom générique « Cottea » est un hommage à l'agronome allemand, Heinrich Cotta.
 L'épithète spécifique « pappophoroides » est un terme de latin botanique signifiant « semblable au genre Pappophorum ».
 Cytologie
-Le nombre chromosomique de base du genre est  x = 10, avec un nombre chromosomique somatique de 2n = 20 (diploïde)[3].
+Le nombre chromosomique de base du genre est  x = 10, avec un nombre chromosomique somatique de 2n = 20 (diploïde).
 </t>
         </is>
       </c>
